--- a/backend/data/Product Dimension.xlsx
+++ b/backend/data/Product Dimension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\OneDrive\Desktop\my_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackwu204/CursorAI/Sunique/02-shipping/development-website/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77313ACF-17EB-4F26-B0E6-B868B3514DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC6B7A-473D-614C-A86E-892A3381883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembled" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assembled!$A$1:$F$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RTA!$A$1:$F$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RTA!$A$1:$F$210</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="215">
   <si>
     <t>length(inch)</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>SW-REP1.596</t>
+  </si>
+  <si>
+    <t>SW-VSD60</t>
   </si>
 </sst>
 </file>
@@ -995,15 +998,15 @@
       <selection activeCell="A159" sqref="A159:F159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3863,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -4103,7 +4106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>213</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -4403,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -4423,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -4663,7 +4666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -4703,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -4743,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -4943,7 +4946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -5191,19 +5194,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFDD3E4-9FDB-420F-9ABF-8577A5FA535D}">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5323,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5463,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -5523,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -5803,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -5863,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5903,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -6103,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -6283,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6363,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -6543,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -6703,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -6823,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -6863,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -7103,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -7223,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -7243,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -7283,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -7303,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -7323,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -7363,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -7383,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -7423,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -7463,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -7483,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -7563,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -7603,7 +7606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -7623,7 +7626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -7683,7 +7686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -7803,7 +7806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -7843,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -7903,29 +7906,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136">
+        <v>60</v>
+      </c>
+      <c r="C136">
+        <v>34.5</v>
+      </c>
+      <c r="D136">
+        <v>21</v>
+      </c>
+      <c r="E136">
+        <v>60</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>138</v>
-      </c>
-      <c r="B136">
-        <v>35.433070870000002</v>
-      </c>
-      <c r="C136">
-        <v>23.622047240000001</v>
-      </c>
-      <c r="D136">
-        <v>5.511811024</v>
-      </c>
-      <c r="E136">
-        <v>24</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>139</v>
       </c>
       <c r="B137">
         <v>35.433070870000002</v>
@@ -7937,15 +7940,15 @@
         <v>5.511811024</v>
       </c>
       <c r="E137">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138">
         <v>35.433070870000002</v>
@@ -7957,38 +7960,38 @@
         <v>5.511811024</v>
       </c>
       <c r="E138">
+        <v>29</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>35.433070870000002</v>
+      </c>
+      <c r="C139">
+        <v>23.622047240000001</v>
+      </c>
+      <c r="D139">
+        <v>5.511811024</v>
+      </c>
+      <c r="E139">
         <v>34</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>141</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <v>29.330708659999999</v>
-      </c>
-      <c r="C139">
-        <v>12.598425199999999</v>
-      </c>
-      <c r="D139">
-        <v>4.3307086610000001</v>
-      </c>
-      <c r="E139">
-        <v>3.18</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140">
-        <v>35.433070870000002</v>
       </c>
       <c r="C140">
         <v>12.598425199999999</v>
@@ -7997,18 +8000,18 @@
         <v>4.3307086610000001</v>
       </c>
       <c r="E140">
-        <v>2.27</v>
+        <v>3.18</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141">
-        <v>41.338582680000002</v>
+        <v>35.433070870000002</v>
       </c>
       <c r="C141">
         <v>12.598425199999999</v>
@@ -8023,49 +8026,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142">
-        <v>34.448818899999999</v>
+        <v>41.338582680000002</v>
       </c>
       <c r="C142">
-        <v>24.409448820000001</v>
+        <v>12.598425199999999</v>
       </c>
       <c r="D142">
         <v>4.3307086610000001</v>
       </c>
       <c r="E142">
+        <v>2.27</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>34.448818899999999</v>
+      </c>
+      <c r="C143">
+        <v>24.409448820000001</v>
+      </c>
+      <c r="D143">
+        <v>4.3307086610000001</v>
+      </c>
+      <c r="E143">
         <v>9.07</v>
       </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>145</v>
-      </c>
-      <c r="B143">
-        <v>38.18897638</v>
-      </c>
-      <c r="C143">
-        <v>10.62992126</v>
-      </c>
-      <c r="D143">
-        <v>3.1496062990000002</v>
-      </c>
-      <c r="E143">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>146</v>
       </c>
       <c r="B144">
         <v>38.18897638</v>
@@ -8074,41 +8077,41 @@
         <v>10.62992126</v>
       </c>
       <c r="D144">
+        <v>3.1496062990000002</v>
+      </c>
+      <c r="E144">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>38.18897638</v>
+      </c>
+      <c r="C145">
+        <v>10.62992126</v>
+      </c>
+      <c r="D145">
         <v>6.2992125980000004</v>
       </c>
-      <c r="E144">
+      <c r="E145">
         <v>8.65</v>
       </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>147</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <v>31.102362200000002</v>
-      </c>
-      <c r="C145">
-        <v>0.8</v>
-      </c>
-      <c r="D145">
-        <v>3.1496062990000002</v>
-      </c>
-      <c r="E145">
-        <v>0.33</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146">
-        <v>36.81102362</v>
       </c>
       <c r="C146">
         <v>0.8</v>
@@ -8117,18 +8120,18 @@
         <v>3.1496062990000002</v>
       </c>
       <c r="E146">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147">
-        <v>42.913385830000003</v>
+        <v>36.81102362</v>
       </c>
       <c r="C147">
         <v>0.8</v>
@@ -8137,18 +8140,18 @@
         <v>3.1496062990000002</v>
       </c>
       <c r="E147">
-        <v>0.45500000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148">
-        <v>96.850393699999998</v>
+        <v>42.913385830000003</v>
       </c>
       <c r="C148">
         <v>0.8</v>
@@ -8157,38 +8160,38 @@
         <v>3.1496062990000002</v>
       </c>
       <c r="E148">
-        <v>1.3480000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149">
-        <v>42.913385830000003</v>
+        <v>96.850393699999998</v>
       </c>
       <c r="C149">
         <v>0.8</v>
       </c>
       <c r="D149">
-        <v>6.2992125980000004</v>
+        <v>3.1496062990000002</v>
       </c>
       <c r="E149">
-        <v>0.88</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150">
-        <v>96.850393699999998</v>
+        <v>42.913385830000003</v>
       </c>
       <c r="C150">
         <v>0.8</v>
@@ -8197,201 +8200,201 @@
         <v>6.2992125980000004</v>
       </c>
       <c r="E150">
-        <v>2.17</v>
+        <v>0.88</v>
       </c>
       <c r="F150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>96.850393699999998</v>
       </c>
       <c r="C151">
-        <v>7.0866141730000001</v>
+        <v>0.8</v>
       </c>
       <c r="D151">
-        <v>2.9527559060000002</v>
+        <v>6.2992125980000004</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>2.17</v>
       </c>
       <c r="F151">
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152">
         <v>96.850393699999998</v>
       </c>
       <c r="C152">
-        <v>7.8740157479999997</v>
+        <v>7.0866141730000001</v>
       </c>
       <c r="D152">
-        <v>2.1653543310000001</v>
+        <v>2.9527559060000002</v>
       </c>
       <c r="E152">
-        <v>1.36</v>
+        <v>5</v>
       </c>
       <c r="F152">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153">
         <v>96.850393699999998</v>
       </c>
       <c r="C153">
-        <v>4.9212598429999996</v>
+        <v>7.8740157479999997</v>
       </c>
       <c r="D153">
-        <v>1.1811023620000001</v>
+        <v>2.1653543310000001</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="F153">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154">
         <v>96.850393699999998</v>
       </c>
       <c r="C154">
-        <v>2.9527559060000002</v>
+        <v>4.9212598429999996</v>
       </c>
       <c r="D154">
-        <v>1.771653543</v>
+        <v>1.1811023620000001</v>
       </c>
       <c r="E154">
-        <v>10.6</v>
+        <v>2</v>
       </c>
       <c r="F154">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155">
         <v>96.850393699999998</v>
       </c>
       <c r="C155">
-        <v>4.7244094490000004</v>
+        <v>2.9527559060000002</v>
       </c>
       <c r="D155">
-        <v>4.3307086610000001</v>
+        <v>1.771653543</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>10.6</v>
       </c>
       <c r="F155">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156">
-        <v>15.7480315</v>
+        <v>96.850393699999998</v>
       </c>
       <c r="C156">
-        <v>11.81102362</v>
+        <v>4.7244094490000004</v>
       </c>
       <c r="D156">
         <v>4.3307086610000001</v>
       </c>
       <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>15.7480315</v>
+      </c>
+      <c r="C157">
+        <v>11.81102362</v>
+      </c>
+      <c r="D157">
+        <v>4.3307086610000001</v>
+      </c>
+      <c r="E157">
         <v>2.4</v>
       </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>159</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <v>35.433070870000002</v>
       </c>
-      <c r="C157">
+      <c r="C158">
         <v>27.16535433</v>
       </c>
-      <c r="D157">
+      <c r="D158">
         <v>0.78740157499999996</v>
       </c>
-      <c r="E157">
+      <c r="E158">
         <v>1</v>
       </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>160</v>
-      </c>
-      <c r="B158">
-        <v>96.850393699999998</v>
-      </c>
-      <c r="C158">
-        <v>42.519685039999999</v>
-      </c>
-      <c r="D158">
-        <v>0.19685039400000001</v>
-      </c>
-      <c r="E158">
-        <v>10</v>
-      </c>
-      <c r="F158">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>213</v>
       </c>
       <c r="B159">
         <v>96.850393699999998</v>
       </c>
       <c r="C159">
-        <v>29.9</v>
+        <v>42.519685039999999</v>
       </c>
       <c r="D159">
-        <v>0.78740157499999996</v>
+        <v>0.19685039400000001</v>
       </c>
       <c r="E159">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="F159">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="B160">
         <v>96.850393699999998</v>
       </c>
       <c r="C160">
-        <v>29.921259840000001</v>
+        <v>29.9</v>
       </c>
       <c r="D160">
         <v>0.78740157499999996</v>
@@ -8403,89 +8406,89 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>96.850393699999998</v>
+      </c>
+      <c r="C161">
+        <v>29.921259840000001</v>
+      </c>
+      <c r="D161">
+        <v>0.78740157499999996</v>
+      </c>
+      <c r="E161">
+        <v>15.5</v>
+      </c>
+      <c r="F161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>162</v>
-      </c>
-      <c r="B161">
-        <v>28.740157480000001</v>
-      </c>
-      <c r="C161">
-        <v>13.77952756</v>
-      </c>
-      <c r="D161">
-        <v>3.3464566929999999</v>
-      </c>
-      <c r="E161">
-        <v>6.1</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>163</v>
       </c>
       <c r="B162">
         <v>28.740157480000001</v>
       </c>
       <c r="C162">
-        <v>16.732283460000001</v>
+        <v>13.77952756</v>
       </c>
       <c r="D162">
         <v>3.3464566929999999</v>
       </c>
       <c r="E162">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>28.740157480000001</v>
       </c>
       <c r="C163">
-        <v>19.685039369999998</v>
+        <v>16.732283460000001</v>
       </c>
       <c r="D163">
         <v>3.3464566929999999</v>
       </c>
       <c r="E163">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>28.740157480000001</v>
       </c>
       <c r="C164">
-        <v>20.472440939999998</v>
+        <v>19.685039369999998</v>
       </c>
       <c r="D164">
         <v>3.3464566929999999</v>
       </c>
       <c r="E164">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>28.740157480000001</v>
@@ -8497,15 +8500,15 @@
         <v>3.3464566929999999</v>
       </c>
       <c r="E165">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>28.740157480000001</v>
@@ -8517,18 +8520,18 @@
         <v>3.3464566929999999</v>
       </c>
       <c r="E166">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>32.480314960000001</v>
+        <v>28.740157480000001</v>
       </c>
       <c r="C167">
         <v>20.472440939999998</v>
@@ -8537,35 +8540,35 @@
         <v>3.3464566929999999</v>
       </c>
       <c r="E167">
+        <v>8.5</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>32.480314960000001</v>
+      </c>
+      <c r="C168">
+        <v>20.472440939999998</v>
+      </c>
+      <c r="D168">
+        <v>3.3464566929999999</v>
+      </c>
+      <c r="E168">
         <v>9.1</v>
       </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>169</v>
-      </c>
-      <c r="B168">
-        <v>36.81102362</v>
-      </c>
-      <c r="C168">
-        <v>31.102362200000002</v>
-      </c>
-      <c r="D168">
-        <v>5.3149606299999999</v>
-      </c>
-      <c r="E168">
-        <v>9.5259999999999998</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>170</v>
       </c>
       <c r="B169">
         <v>36.81102362</v>
@@ -8583,12 +8586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>42.913385830000003</v>
+        <v>36.81102362</v>
       </c>
       <c r="C170">
         <v>31.102362200000002</v>
@@ -8603,9 +8606,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>42.913385830000003</v>
@@ -8623,138 +8626,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>42.913385830000003</v>
+      </c>
+      <c r="C172">
+        <v>31.102362200000002</v>
+      </c>
+      <c r="D172">
+        <v>5.3149606299999999</v>
+      </c>
+      <c r="E172">
+        <v>9.5259999999999998</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>173</v>
       </c>
-      <c r="B172">
+      <c r="B173">
         <v>96.850393699999998</v>
       </c>
-      <c r="C172">
+      <c r="C173">
         <v>5.1181102359999997</v>
       </c>
-      <c r="D172">
+      <c r="D173">
         <v>1.1811023620000001</v>
       </c>
-      <c r="E172">
+      <c r="E173">
         <v>2</v>
       </c>
-      <c r="F172">
+      <c r="F173">
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>174</v>
       </c>
-      <c r="B173">
+      <c r="B174">
         <v>35.433070870000002</v>
       </c>
-      <c r="C173">
+      <c r="C174">
         <v>26.771653539999999</v>
       </c>
-      <c r="D173">
+      <c r="D174">
         <v>5.9055118110000002</v>
       </c>
-      <c r="E173">
+      <c r="E174">
         <v>39</v>
       </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>175</v>
-      </c>
-      <c r="B174">
-        <v>96.850393699999998</v>
-      </c>
-      <c r="C174">
-        <v>5.1181102359999997</v>
-      </c>
-      <c r="D174">
-        <v>1.1811023620000001</v>
-      </c>
-      <c r="E174">
-        <v>2</v>
-      </c>
-      <c r="F174">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>176</v>
       </c>
       <c r="B175">
         <v>96.850393699999998</v>
       </c>
       <c r="C175">
-        <v>4.3307086610000001</v>
+        <v>5.1181102359999997</v>
       </c>
       <c r="D175">
-        <v>3.9370078739999999</v>
+        <v>1.1811023620000001</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F175">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>96.850393699999998</v>
       </c>
       <c r="C176">
-        <v>35.039370079999998</v>
+        <v>4.3307086610000001</v>
       </c>
       <c r="D176">
-        <v>0.19685039400000001</v>
+        <v>3.9370078739999999</v>
       </c>
       <c r="E176">
-        <v>12.7</v>
+        <v>3</v>
       </c>
       <c r="F176">
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>96.850393699999998</v>
+      </c>
+      <c r="C177">
+        <v>35.039370079999998</v>
+      </c>
+      <c r="D177">
+        <v>0.19685039400000001</v>
+      </c>
+      <c r="E177">
+        <v>12.7</v>
+      </c>
+      <c r="F177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>178</v>
       </c>
-      <c r="B177">
+      <c r="B178">
         <v>36.81102362</v>
       </c>
-      <c r="C177">
+      <c r="C178">
         <v>22.44094488</v>
       </c>
-      <c r="D177">
+      <c r="D178">
         <v>3.5433070870000001</v>
-      </c>
-      <c r="E177">
-        <v>6.9</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178">
-        <v>35.039370079999998</v>
-      </c>
-      <c r="C178">
-        <v>4.133858268</v>
-      </c>
-      <c r="D178">
-        <v>4.133858268</v>
       </c>
       <c r="E178">
         <v>6.9</v>
@@ -8763,152 +8766,152 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>35.039370079999998</v>
+      </c>
+      <c r="C179">
+        <v>4.133858268</v>
+      </c>
+      <c r="D179">
+        <v>4.133858268</v>
+      </c>
+      <c r="E179">
+        <v>6.9</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>180</v>
       </c>
-      <c r="B179">
+      <c r="B180">
         <v>96.850393699999998</v>
       </c>
-      <c r="C179">
+      <c r="C180">
         <v>34.251968499999997</v>
       </c>
-      <c r="D179">
+      <c r="D180">
         <v>4.9212598429999996</v>
       </c>
-      <c r="E179">
+      <c r="E180">
         <v>107.9</v>
       </c>
-      <c r="F179">
+      <c r="F180">
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>181</v>
       </c>
-      <c r="B180">
+      <c r="B181">
         <v>36.81102362</v>
       </c>
-      <c r="C180">
+      <c r="C181">
         <v>12.598425199999999</v>
       </c>
-      <c r="D180">
+      <c r="D181">
         <v>1.9685039369999999</v>
       </c>
-      <c r="E180">
+      <c r="E181">
         <v>8.16</v>
       </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>182</v>
-      </c>
-      <c r="B181">
-        <v>96.850393699999998</v>
-      </c>
-      <c r="C181">
-        <v>4.7244094490000004</v>
-      </c>
-      <c r="D181">
-        <v>2.755905512</v>
-      </c>
-      <c r="E181">
-        <v>45.36</v>
-      </c>
-      <c r="F181">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>183</v>
       </c>
       <c r="B182">
         <v>96.850393699999998</v>
       </c>
       <c r="C182">
-        <v>27.55905512</v>
+        <v>4.7244094490000004</v>
       </c>
       <c r="D182">
-        <v>5.3149606299999999</v>
+        <v>2.755905512</v>
       </c>
       <c r="E182">
-        <v>83.85</v>
+        <v>45.36</v>
       </c>
       <c r="F182">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>96.850393699999998</v>
       </c>
       <c r="C183">
-        <v>31.496062989999999</v>
+        <v>27.55905512</v>
       </c>
       <c r="D183">
         <v>5.3149606299999999</v>
       </c>
       <c r="E183">
-        <v>90</v>
+        <v>83.85</v>
       </c>
       <c r="F183">
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>96.850393699999998</v>
+      </c>
+      <c r="C184">
+        <v>31.496062989999999</v>
+      </c>
+      <c r="D184">
+        <v>5.3149606299999999</v>
+      </c>
+      <c r="E184">
+        <v>90</v>
+      </c>
+      <c r="F184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>185</v>
       </c>
-      <c r="B184">
+      <c r="B185">
         <v>31.102362200000002</v>
-      </c>
-      <c r="C184">
-        <v>27.95275591</v>
-      </c>
-      <c r="D184">
-        <v>4.5275590550000002</v>
-      </c>
-      <c r="E184">
-        <v>20.45</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>186</v>
-      </c>
-      <c r="B185">
-        <v>36.81102362</v>
       </c>
       <c r="C185">
         <v>27.95275591</v>
       </c>
       <c r="D185">
-        <v>4.3307086610000001</v>
+        <v>4.5275590550000002</v>
       </c>
       <c r="E185">
-        <v>22.8</v>
+        <v>20.45</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186">
-        <v>42.913385830000003</v>
+        <v>36.81102362</v>
       </c>
       <c r="C186">
         <v>27.95275591</v>
@@ -8917,98 +8920,98 @@
         <v>4.3307086610000001</v>
       </c>
       <c r="E186">
+        <v>22.8</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>42.913385830000003</v>
+      </c>
+      <c r="C187">
+        <v>27.95275591</v>
+      </c>
+      <c r="D187">
+        <v>4.3307086610000001</v>
+      </c>
+      <c r="E187">
         <v>27.25</v>
       </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>188</v>
-      </c>
-      <c r="B187">
-        <v>36.81102362</v>
-      </c>
-      <c r="C187">
-        <v>16.141732279999999</v>
-      </c>
-      <c r="D187">
-        <v>4.7244094490000004</v>
-      </c>
-      <c r="E187">
-        <v>11.55</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>189</v>
       </c>
       <c r="B188">
         <v>36.81102362</v>
       </c>
       <c r="C188">
-        <v>18.897637799999998</v>
+        <v>16.141732279999999</v>
       </c>
       <c r="D188">
         <v>4.7244094490000004</v>
       </c>
       <c r="E188">
+        <v>11.55</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>36.81102362</v>
+      </c>
+      <c r="C189">
+        <v>18.897637799999998</v>
+      </c>
+      <c r="D189">
+        <v>4.7244094490000004</v>
+      </c>
+      <c r="E189">
         <v>10.89</v>
       </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>190</v>
       </c>
-      <c r="B189">
+      <c r="B190">
         <v>35.433070870000002</v>
       </c>
-      <c r="C189">
+      <c r="C190">
         <v>25.590551179999999</v>
       </c>
-      <c r="D189">
+      <c r="D190">
         <v>7.8740157479999997</v>
       </c>
-      <c r="E189">
+      <c r="E190">
         <v>21.42</v>
       </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>191</v>
       </c>
-      <c r="B190">
+      <c r="B191">
         <v>12.992125980000001</v>
-      </c>
-      <c r="C190">
-        <v>12.992125980000001</v>
-      </c>
-      <c r="D190">
-        <v>3.5433070870000001</v>
-      </c>
-      <c r="E190">
-        <v>4.5</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>192</v>
-      </c>
-      <c r="B191">
-        <v>16.141732279999999</v>
       </c>
       <c r="C191">
         <v>12.992125980000001</v>
@@ -9017,18 +9020,18 @@
         <v>3.5433070870000001</v>
       </c>
       <c r="E191">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192">
-        <v>18.897637799999998</v>
+        <v>16.141732279999999</v>
       </c>
       <c r="C192">
         <v>12.992125980000001</v>
@@ -9037,38 +9040,38 @@
         <v>3.5433070870000001</v>
       </c>
       <c r="E192">
+        <v>5.3</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>18.897637799999998</v>
+      </c>
+      <c r="C193">
+        <v>12.992125980000001</v>
+      </c>
+      <c r="D193">
+        <v>3.5433070870000001</v>
+      </c>
+      <c r="E193">
         <v>6.3</v>
       </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>194</v>
       </c>
-      <c r="B193">
+      <c r="B194">
         <v>12.204724410000001</v>
-      </c>
-      <c r="C193">
-        <v>11.22047244</v>
-      </c>
-      <c r="D193">
-        <v>1.9685039369999999</v>
-      </c>
-      <c r="E193">
-        <v>3</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>195</v>
-      </c>
-      <c r="B194">
-        <v>14.960629920000001</v>
       </c>
       <c r="C194">
         <v>11.22047244</v>
@@ -9083,12 +9086,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195">
-        <v>18.110236220000001</v>
+        <v>14.960629920000001</v>
       </c>
       <c r="C195">
         <v>11.22047244</v>
@@ -9103,29 +9106,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>18.110236220000001</v>
+      </c>
+      <c r="C196">
+        <v>11.22047244</v>
+      </c>
+      <c r="D196">
+        <v>1.9685039369999999</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>197</v>
-      </c>
-      <c r="B196">
-        <v>85.039370079999998</v>
-      </c>
-      <c r="C196">
-        <v>27.55905512</v>
-      </c>
-      <c r="D196">
-        <v>4.7244094490000004</v>
-      </c>
-      <c r="E196">
-        <v>65</v>
-      </c>
-      <c r="F196">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>198</v>
       </c>
       <c r="B197">
         <v>85.039370079999998</v>
@@ -9134,58 +9137,58 @@
         <v>27.55905512</v>
       </c>
       <c r="D197">
-        <v>5.3149606299999999</v>
+        <v>4.7244094490000004</v>
       </c>
       <c r="E197">
-        <v>73.400000000000006</v>
+        <v>65</v>
       </c>
       <c r="F197">
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>85.039370079999998</v>
       </c>
       <c r="C198">
-        <v>31.496062989999999</v>
+        <v>27.55905512</v>
       </c>
       <c r="D198">
         <v>5.3149606299999999</v>
       </c>
       <c r="E198">
-        <v>81.8</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F198">
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199">
-        <v>90.944881890000005</v>
+        <v>85.039370079999998</v>
       </c>
       <c r="C199">
-        <v>27.55905512</v>
+        <v>31.496062989999999</v>
       </c>
       <c r="D199">
-        <v>4.7244094490000004</v>
+        <v>5.3149606299999999</v>
       </c>
       <c r="E199">
-        <v>63.4</v>
+        <v>81.8</v>
       </c>
       <c r="F199">
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>90.944881890000005</v>
@@ -9194,81 +9197,81 @@
         <v>27.55905512</v>
       </c>
       <c r="D200">
-        <v>5.3149606299999999</v>
+        <v>4.7244094490000004</v>
       </c>
       <c r="E200">
-        <v>75.5</v>
+        <v>63.4</v>
       </c>
       <c r="F200">
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>90.944881890000005</v>
       </c>
       <c r="C201">
-        <v>31.496062989999999</v>
+        <v>27.55905512</v>
       </c>
       <c r="D201">
         <v>5.3149606299999999</v>
       </c>
       <c r="E201">
-        <v>89</v>
+        <v>75.5</v>
       </c>
       <c r="F201">
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202">
-        <v>96.850393699999998</v>
+        <v>90.944881890000005</v>
       </c>
       <c r="C202">
-        <v>27.55905512</v>
+        <v>31.496062989999999</v>
       </c>
       <c r="D202">
-        <v>4.7244094490000004</v>
+        <v>5.3149606299999999</v>
       </c>
       <c r="E202">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F202">
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203">
-        <v>84.645669290000001</v>
+        <v>96.850393699999998</v>
       </c>
       <c r="C203">
-        <v>34.251968499999997</v>
+        <v>27.55905512</v>
       </c>
       <c r="D203">
-        <v>4.9212598429999996</v>
+        <v>4.7244094490000004</v>
       </c>
       <c r="E203">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F203">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204">
-        <v>90.551181099999994</v>
+        <v>84.645669290000001</v>
       </c>
       <c r="C204">
         <v>34.251968499999997</v>
@@ -9277,35 +9280,35 @@
         <v>4.9212598429999996</v>
       </c>
       <c r="E204">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F204">
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205">
-        <v>96.850393699999998</v>
+        <v>90.551181099999994</v>
       </c>
       <c r="C205">
-        <v>4.7244094490000004</v>
+        <v>34.251968499999997</v>
       </c>
       <c r="D205">
-        <v>4.7244094490000004</v>
+        <v>4.9212598429999996</v>
       </c>
       <c r="E205">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F205">
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>96.850393699999998</v>
@@ -9314,77 +9317,97 @@
         <v>4.7244094490000004</v>
       </c>
       <c r="D206">
-        <v>4.3307086610000001</v>
+        <v>4.7244094490000004</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F206">
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>96.850393699999998</v>
+      </c>
+      <c r="C207">
+        <v>4.7244094490000004</v>
+      </c>
+      <c r="D207">
+        <v>4.3307086610000001</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>208</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>23</v>
       </c>
-      <c r="C207">
+      <c r="C208">
         <v>14</v>
-      </c>
-      <c r="D207">
-        <v>5</v>
-      </c>
-      <c r="E207">
-        <v>16</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>209</v>
-      </c>
-      <c r="B208">
-        <v>29</v>
-      </c>
-      <c r="C208">
-        <v>15</v>
       </c>
       <c r="D208">
         <v>5</v>
       </c>
       <c r="E208">
+        <v>16</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>29</v>
+      </c>
+      <c r="C209">
+        <v>15</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209">
         <v>18</v>
       </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>211</v>
       </c>
-      <c r="B209">
+      <c r="B210">
         <v>96</v>
       </c>
-      <c r="C209">
+      <c r="C210">
         <v>1</v>
       </c>
-      <c r="D209">
+      <c r="D210">
         <v>1</v>
       </c>
-      <c r="E209">
+      <c r="E210">
         <v>3</v>
       </c>
-      <c r="F209">
+      <c r="F210">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F209" xr:uid="{CBFDD3E4-9FDB-420F-9ABF-8577A5FA535D}"/>
+  <autoFilter ref="A1:F210" xr:uid="{CBFDD3E4-9FDB-420F-9ABF-8577A5FA535D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/data/Product Dimension.xlsx
+++ b/backend/data/Product Dimension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackwu204/CursorAI/Sunique/02-shipping/development-website/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC6B7A-473D-614C-A86E-892A3381883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A4731-5292-9040-A4A0-264168EDF5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembled" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
     <t>SW-REP1.596</t>
   </si>
   <si>
-    <t>SW-VSD60</t>
+    <t>SW-VSD60S</t>
   </si>
 </sst>
 </file>
@@ -5197,7 +5197,7 @@
   <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
